--- a/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1458574335824625</v>
+        <v>0.1464741965217093</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2428997148029519</v>
+        <v>0.2401795287502472</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1939749125238063</v>
+        <v>0.192039583119593</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2892348087502665</v>
+        <v>0.2846027235817033</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2308901944244217</v>
+        <v>0.2339880385682943</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3806441028377716</v>
+        <v>0.3816796184035889</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3331480415879533</v>
+        <v>0.3338097890055694</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3935298175590778</v>
+        <v>0.3930909637531905</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1984337936755655</v>
+        <v>0.1962823911687162</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3258023578633132</v>
+        <v>0.3228196295309332</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2712498691457495</v>
+        <v>0.2711595533819393</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3502868167586639</v>
+        <v>0.3515857158924205</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1990353392830688</v>
+        <v>0.2021190802006435</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3093699579235109</v>
+        <v>0.3118692569523492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2603896039596093</v>
+        <v>0.2568156500431342</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3625358536249655</v>
+        <v>0.362107314159566</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2982125142433156</v>
+        <v>0.2958796712672818</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4575047746142926</v>
+        <v>0.4606098175891432</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4090803932362259</v>
+        <v>0.4093373854167205</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4511364055120459</v>
+        <v>0.4509758321191942</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2412892031891295</v>
+        <v>0.2385409771661275</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3730352875808955</v>
+        <v>0.374829014184757</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3211562692692099</v>
+        <v>0.3214058446688092</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3988279255891199</v>
+        <v>0.3968076701941645</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3392357197479913</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3985015229976177</v>
+        <v>0.3985015229976176</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2346113588628044</v>
@@ -833,7 +833,7 @@
         <v>0.2863955135027629</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3296027123055753</v>
+        <v>0.3296027123055752</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1568463843729048</v>
+        <v>0.1571344797400619</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2180683181175373</v>
+        <v>0.2166533956451498</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2056961353515143</v>
+        <v>0.2068278473876793</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2311835855748398</v>
+        <v>0.2307419926611374</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2562227566621303</v>
+        <v>0.2572166047459704</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3437112579211378</v>
+        <v>0.3467041172299307</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3098481222406629</v>
+        <v>0.3092665841085789</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3723678698918836</v>
+        <v>0.3713451279269017</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2157775614874022</v>
+        <v>0.2152307561043386</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2899824770933154</v>
+        <v>0.2891222248407628</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2677643710878409</v>
+        <v>0.2662424350090692</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3105204852576315</v>
+        <v>0.3094067844061709</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2054782446357531</v>
+        <v>0.2081356670135205</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2754528815811691</v>
+        <v>0.2767651419540789</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2568916574729853</v>
+        <v>0.2622678333712726</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2870538839999231</v>
+        <v>0.289357443951302</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3151227888165451</v>
+        <v>0.3178020679708666</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4063416015103405</v>
+        <v>0.4069859783595058</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.368973969220653</v>
+        <v>0.3705160759498081</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4231477977651942</v>
+        <v>0.4239676688472378</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2538071324334907</v>
+        <v>0.2552095616379261</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3332709081801642</v>
+        <v>0.3324087144161944</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3058726222277044</v>
+        <v>0.3074154088794151</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3489246689204099</v>
+        <v>0.3488423241136127</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1388557527892446</v>
+        <v>0.1368661694712042</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1907648600474621</v>
+        <v>0.1901651273469628</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1823485812919591</v>
+        <v>0.182058261379546</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2667964404732449</v>
+        <v>0.2686961880180296</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2795709031589944</v>
+        <v>0.2786031880424363</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3586168143176495</v>
+        <v>0.354780618610105</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2685033372097711</v>
+        <v>0.2664571677767965</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3480322564419228</v>
+        <v>0.3471337114061171</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2162606361525047</v>
+        <v>0.2143125302206052</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2835256965242064</v>
+        <v>0.2841661650395901</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2366626232185732</v>
+        <v>0.2344218166676452</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3164948413850756</v>
+        <v>0.3181183837745269</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1962322121553222</v>
+        <v>0.1930848929881767</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2575200862357435</v>
+        <v>0.2541082491083088</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2435799024812425</v>
+        <v>0.2418664090889573</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3395079730479259</v>
+        <v>0.3392886434138531</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3465758548260449</v>
+        <v>0.3497175971311841</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.429110906112695</v>
+        <v>0.4275717808089391</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3346104947199113</v>
+        <v>0.333953913846365</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4067234407926864</v>
+        <v>0.4123162485570252</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2618505511427349</v>
+        <v>0.2592655397685126</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3326293904569102</v>
+        <v>0.334062210943852</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2813048625204041</v>
+        <v>0.2802547216637411</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3645810213367799</v>
+        <v>0.3653022753321636</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.3771913796757968</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4177236265510142</v>
+        <v>0.4177236265510141</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2526713570539372</v>
@@ -1105,7 +1105,7 @@
         <v>0.3147136974715708</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3685679856664081</v>
+        <v>0.3685679856664082</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1563274951043483</v>
+        <v>0.1533933944676511</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2366835404594485</v>
+        <v>0.2401253436415038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2191546538301629</v>
+        <v>0.2163300587010747</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2830900125402257</v>
+        <v>0.2826493662236687</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2919631845010542</v>
+        <v>0.2914187393323026</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3863408192770181</v>
+        <v>0.3864560065787913</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3465435689771876</v>
+        <v>0.3483497323125894</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3915372597867652</v>
+        <v>0.3917763033800969</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2347081026200082</v>
+        <v>0.2341457710563702</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3259095945247661</v>
+        <v>0.3247601970555491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2918589753798737</v>
+        <v>0.294904650997176</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3497886880269707</v>
+        <v>0.3478727244612567</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2033946459137742</v>
+        <v>0.202065593113964</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2980177194404398</v>
+        <v>0.2973649100814507</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.272963444540875</v>
+        <v>0.2717227508653235</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3460165244514773</v>
+        <v>0.3421988975295031</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3486691950324264</v>
+        <v>0.3503955770493803</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4485334256460123</v>
+        <v>0.4475463749588292</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.40947255350703</v>
+        <v>0.4089043526349202</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.44489678731463</v>
+        <v>0.4436148398856873</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2724377283204225</v>
+        <v>0.2717253898340081</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3709974488239601</v>
+        <v>0.3696363521616011</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3358047389817292</v>
+        <v>0.3363484535921421</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3892211088586874</v>
+        <v>0.3879590052074056</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3480945393985906</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4044272088066748</v>
+        <v>0.4044272088066747</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2371808704929737</v>
@@ -1241,7 +1241,7 @@
         <v>0.2900753972318618</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3518555473516288</v>
+        <v>0.3518555473516289</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.162167081398725</v>
+        <v>0.1618109975640701</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2359163946098933</v>
+        <v>0.2363552998640854</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2143130378385566</v>
+        <v>0.2140421273941102</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2817844337124596</v>
+        <v>0.279672693088771</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2820041681539491</v>
+        <v>0.2809607638758289</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3845994062765402</v>
+        <v>0.3836209088048492</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3310209156712248</v>
+        <v>0.330394044515654</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3892165264919744</v>
+        <v>0.3895839724207166</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2275471858814417</v>
+        <v>0.2270608141665972</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3153037823008362</v>
+        <v>0.3162000005884409</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.278651129595837</v>
+        <v>0.2796680095254647</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3412208082512383</v>
+        <v>0.3395609369117333</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1876550404954107</v>
+        <v>0.1882087690837782</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2685533183889923</v>
+        <v>0.2694024069474839</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2432211743021607</v>
+        <v>0.2425915834669733</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3125834626981234</v>
+        <v>0.313039322144691</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3127551671621425</v>
+        <v>0.3130232135071188</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4179212969313246</v>
+        <v>0.4175928916533557</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3658697484075641</v>
+        <v>0.3644753589976356</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4169880532585944</v>
+        <v>0.4186461278401625</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2487050156102262</v>
+        <v>0.2483965652012778</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3399503918535019</v>
+        <v>0.3384073384178909</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3018608980188818</v>
+        <v>0.3014701974636741</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3614358832386632</v>
+        <v>0.362074918592791</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>101227</v>
+        <v>101655</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>170872</v>
+        <v>168959</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>130894</v>
+        <v>129588</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>199777</v>
+        <v>196578</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>158933</v>
+        <v>161066</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>265328</v>
+        <v>266050</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>224155</v>
+        <v>224600</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>288922</v>
+        <v>288600</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>274308</v>
+        <v>271334</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>456292</v>
+        <v>452115</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>365547</v>
+        <v>365425</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>499120</v>
+        <v>500971</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>138133</v>
+        <v>140273</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>217632</v>
+        <v>219390</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>175711</v>
+        <v>173299</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>250407</v>
+        <v>250111</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>205275</v>
+        <v>203669</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>318904</v>
+        <v>321068</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>275245</v>
+        <v>275418</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>331215</v>
+        <v>331097</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>333549</v>
+        <v>329750</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>522443</v>
+        <v>524955</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>432803</v>
+        <v>433139</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>568286</v>
+        <v>565407</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>150855</v>
+        <v>151132</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>221982</v>
+        <v>220542</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>210310</v>
+        <v>211467</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>242492</v>
+        <v>242029</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>248124</v>
+        <v>249087</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>354773</v>
+        <v>357862</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>323145</v>
+        <v>322538</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>398982</v>
+        <v>397887</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>416492</v>
+        <v>415437</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>594502</v>
+        <v>592738</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>553026</v>
+        <v>549882</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>658425</v>
+        <v>656063</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>197629</v>
+        <v>200185</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>280396</v>
+        <v>281732</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>262654</v>
+        <v>268151</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>301096</v>
+        <v>303512</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>305163</v>
+        <v>307757</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>419419</v>
+        <v>420084</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>384808</v>
+        <v>386416</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>453392</v>
+        <v>454270</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>489897</v>
+        <v>492604</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>683249</v>
+        <v>681481</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>631732</v>
+        <v>634919</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>739857</v>
+        <v>739682</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>94215</v>
+        <v>92865</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>144528</v>
+        <v>144073</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>138503</v>
+        <v>138283</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>214257</v>
+        <v>215783</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>191182</v>
+        <v>190520</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>278708</v>
+        <v>275726</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>210778</v>
+        <v>209172</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>282692</v>
+        <v>281962</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>294623</v>
+        <v>291969</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>435154</v>
+        <v>436137</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>365540</v>
+        <v>362079</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>511244</v>
+        <v>513867</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>133145</v>
+        <v>131010</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>195103</v>
+        <v>192518</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>185012</v>
+        <v>183710</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>272650</v>
+        <v>272474</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>237003</v>
+        <v>239151</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>333494</v>
+        <v>332298</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>262673</v>
+        <v>262157</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>330365</v>
+        <v>334908</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>356732</v>
+        <v>353210</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>510519</v>
+        <v>512718</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>434493</v>
+        <v>432871</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>588919</v>
+        <v>590084</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>147295</v>
+        <v>144531</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>224314</v>
+        <v>227576</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>205472</v>
+        <v>202824</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>280277</v>
+        <v>279840</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>303236</v>
+        <v>302671</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>406392</v>
+        <v>406513</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>361715</v>
+        <v>363600</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>438146</v>
+        <v>438414</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>464918</v>
+        <v>463804</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>651702</v>
+        <v>649403</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>578274</v>
+        <v>584308</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>737741</v>
+        <v>733700</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>191643</v>
+        <v>190391</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>282443</v>
+        <v>281824</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>255922</v>
+        <v>254758</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>342578</v>
+        <v>338798</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>362132</v>
+        <v>363925</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>471813</v>
+        <v>470774</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>427399</v>
+        <v>426806</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>497858</v>
+        <v>496423</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>539654</v>
+        <v>538243</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>741861</v>
+        <v>739140</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>665345</v>
+        <v>666423</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>820908</v>
+        <v>818246</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>531347</v>
+        <v>530181</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>808433</v>
+        <v>809937</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>727453</v>
+        <v>726534</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>995477</v>
+        <v>988017</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>952948</v>
+        <v>949422</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1368524</v>
+        <v>1365042</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1173318</v>
+        <v>1171096</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1454484</v>
+        <v>1455857</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1514495</v>
+        <v>1511258</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2202425</v>
+        <v>2208685</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1933530</v>
+        <v>1940586</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2480578</v>
+        <v>2468512</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>614860</v>
+        <v>616674</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>920273</v>
+        <v>923183</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>825578</v>
+        <v>823441</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1104283</v>
+        <v>1105893</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1056861</v>
+        <v>1057767</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1487093</v>
+        <v>1485925</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1296841</v>
+        <v>1291898</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1558265</v>
+        <v>1564461</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1655316</v>
+        <v>1653263</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2374583</v>
+        <v>2363805</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2094580</v>
+        <v>2091869</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2627536</v>
+        <v>2632182</v>
       </c>
     </row>
     <row r="24">
